--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4A9E1-E881-4AAF-A8E3-791EC931577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA90FC-D3D8-408F-AC97-897236CFA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1783,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,6 +2053,65 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2062,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA90FC-D3D8-408F-AC97-897236CFA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479FA50-1DA4-4414-A89F-3F179A34D3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="425">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -278,9 +278,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Folio ChildLocationsSTRTPID</t>
-  </si>
-  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -746,12 +743,6 @@
     <t>Accepted</t>
   </si>
   <si>
-    <t>Group Home(GH)</t>
-  </si>
-  <si>
-    <t>123 1/2 1st Ave Nederland TX 77627</t>
-  </si>
-  <si>
     <t>Resource Family Home</t>
   </si>
   <si>
@@ -1332,6 +1323,18 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Random Text</t>
+  </si>
+  <si>
+    <t>ChildLocationSTRTPID</t>
   </si>
   <si>
     <t>testT4258</t>
@@ -1359,7 +1362,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1384,7 +1387,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1785,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,62 +2056,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="13" t="s">
+    <row r="6" spans="1:19" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="10" t="s">
+      <c r="K6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2121,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2166,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2175,94 +2178,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
         <v>204</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>205</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>206</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>210</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>214</v>
       </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>215</v>
-      </c>
       <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
         <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB1" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>217</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>218</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>219</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>220</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>222</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>223</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>224</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2282,7 +2285,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -2291,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2315,11 +2318,17 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T2" s="5">
+        <v>97818</v>
+      </c>
       <c r="U2" s="5" t="s">
         <v>20</v>
       </c>
@@ -2329,6 +2338,9 @@
       <c r="W2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>27</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>27</v>
@@ -2383,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2392,10 +2404,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2416,11 +2428,17 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T3" s="5">
+        <v>97818</v>
+      </c>
       <c r="U3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2430,6 +2448,9 @@
       <c r="W3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>27</v>
@@ -2484,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2493,10 +2514,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2517,11 +2538,17 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="S4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="5">
+        <v>97818</v>
+      </c>
       <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2531,6 +2558,9 @@
       <c r="W4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y4" s="5" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2592,7 @@
         <v>27</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>27</v>
@@ -2585,7 +2615,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2594,10 +2624,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2618,13 +2648,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2695,7 +2725,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2704,10 +2734,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2728,13 +2758,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2790,7 +2820,7 @@
     </row>
     <row r="7" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" s="18">
         <v>1</v>
@@ -2805,7 +2835,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>20</v>
@@ -2814,10 +2844,10 @@
         <v>27</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>60</v>
@@ -2838,13 +2868,13 @@
         <v>27</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T7" s="18">
         <v>97818</v>
@@ -2935,28 +2965,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2976,19 +3006,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -3011,19 +3041,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -3038,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3049,16 +3079,18 @@
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
     <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.26953125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -3072,55 +3104,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
         <v>247</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>248</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>250</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>252</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>253</v>
-      </c>
-      <c r="L1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N1" t="s">
-        <v>256</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
-      </c>
-      <c r="R1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -3143,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -3152,23 +3184,25 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N2" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3209,26 +3243,28 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N3" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3263,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3283,12 +3319,14 @@
       <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3326,7 +3364,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3338,7 +3376,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3455,25 +3493,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
       <c r="H1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3493,13 +3531,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3540,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3569,7 +3607,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3601,25 +3639,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="s">
         <v>273</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>274</v>
-      </c>
-      <c r="H1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" t="s">
-        <v>277</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3642,7 +3680,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3651,10 +3689,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3686,22 +3724,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3779,70 +3817,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3862,13 +3900,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3901,10 +3939,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3913,7 +3951,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3962,31 +4000,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3994,7 +4032,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4068,19 +4106,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
         <v>317</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>318</v>
-      </c>
-      <c r="F1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" t="s">
-        <v>321</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4088,7 +4126,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4103,13 +4141,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4122,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4474,13 +4512,13 @@
         <v>20</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>71</v>
+        <v>423</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>27</v>
@@ -4519,6 +4557,107 @@
         <v>61</v>
       </c>
       <c r="AG5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4560,25 +4699,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>328</v>
-      </c>
-      <c r="H1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" t="s">
-        <v>331</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4586,7 +4725,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4601,13 +4740,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4674,81 +4813,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
-      </c>
-      <c r="H1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" t="s">
-        <v>240</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>338</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>344</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>345</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>346</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>347</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4763,19 +4902,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4818,33 +4957,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4859,10 +4998,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4915,57 +5054,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>364</v>
-      </c>
-      <c r="H1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" t="s">
-        <v>367</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O1" t="s">
         <v>368</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>369</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>370</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>371</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>372</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>373</v>
-      </c>
-      <c r="R1" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4989,16 +5128,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5064,45 +5203,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" t="s">
         <v>379</v>
       </c>
-      <c r="E1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>381</v>
-      </c>
-      <c r="K1" t="s">
-        <v>382</v>
-      </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5118,13 +5257,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -5136,7 +5275,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -5189,49 +5328,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5330,42 +5469,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N1" t="s">
         <v>399</v>
-      </c>
-      <c r="L1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5386,10 +5525,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5446,33 +5585,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
         <v>405</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" t="s">
-        <v>408</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5484,25 +5623,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>412</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>413</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>414</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K2" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5540,21 +5679,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5566,10 +5705,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5584,11 +5723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -5601,34 +5744,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -5637,28 +5780,28 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5681,7 +5824,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5690,7 +5833,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -5722,32 +5865,32 @@
         <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>95</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>96</v>
       </c>
       <c r="S3" t="s">
         <v>20</v>
@@ -5788,7 +5931,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -5891,16 +6034,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -5909,64 +6052,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -5975,22 +6118,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -6027,7 +6170,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -6036,20 +6179,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -6061,13 +6204,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -6107,7 +6250,7 @@
         <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -6116,22 +6259,22 @@
         <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -6143,7 +6286,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -6178,7 +6321,7 @@
         <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -6187,22 +6330,22 @@
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -6214,7 +6357,7 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6264,70 +6407,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6350,13 +6493,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -6365,7 +6508,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -6377,16 +6520,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" t="s">
         <v>152</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6406,13 +6549,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -6421,7 +6564,7 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -6433,19 +6576,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" t="s">
         <v>152</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>154</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>155</v>
-      </c>
-      <c r="S3" t="s">
-        <v>156</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6599,16 +6742,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6679,130 +6822,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6851,7 +6994,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -6866,28 +7009,28 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479FA50-1DA4-4414-A89F-3F179A34D3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6122894C-3DC0-43D3-B53E-2150AEEA2E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="15" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,21 @@
     <sheet name="FolioTask" sheetId="13" r:id="rId13"/>
     <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
     <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
-    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId17"/>
-    <sheet name="EligibilityDetails" sheetId="19" r:id="rId18"/>
-    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId19"/>
-    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId20"/>
-    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId21"/>
-    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId22"/>
-    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
-    <sheet name="EligibilityTask" sheetId="26" r:id="rId24"/>
-    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
-    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId27"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
+    <sheet name="TribalPlacementPreferences" sheetId="31" r:id="rId16"/>
+    <sheet name="FolioInspections" sheetId="30" r:id="rId17"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId18"/>
+    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId19"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId20"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId21"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId22"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId23"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId24"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId25"/>
+    <sheet name="EligibilityTask" sheetId="26" r:id="rId26"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId27"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId28"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId29"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="446">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -272,9 +274,6 @@
     <t>testT4275</t>
   </si>
   <si>
-    <t>STRTP</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -563,12 +562,6 @@
     <t>CONTACT_STATUS</t>
   </si>
   <si>
-    <t>CONTACT_START_DATETIME</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
-  </si>
-  <si>
     <t>ON_BEHALF_OF_CHILD</t>
   </si>
   <si>
@@ -743,601 +736,673 @@
     <t>Accepted</t>
   </si>
   <si>
+    <t>Tribally Approved Home</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Qualified Individual Assessment Report</t>
+  </si>
+  <si>
+    <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTIONS_RECORD</t>
+  </si>
+  <si>
+    <t>EMERGENCY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>OTHER_REASON</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTIONID</t>
+  </si>
+  <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>Home is unsafe</t>
+  </si>
+  <si>
+    <t>ProviderOption_ID1</t>
+  </si>
+  <si>
+    <t>Open to Future Placement</t>
+  </si>
+  <si>
+    <t>DUE_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Informing notice</t>
+  </si>
+  <si>
+    <t>Mediun</t>
+  </si>
+  <si>
+    <t>RECORD_ALERT_AND_TASK</t>
+  </si>
+  <si>
+    <t>DATA_CORRECTION_RECORD</t>
+  </si>
+  <si>
+    <t>AutoRFA ClericalWorker Ccosta</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECKS_TAB</t>
+  </si>
+  <si>
+    <t>BACKGROUND_ENTITY</t>
+  </si>
+  <si>
+    <t>PERSON_NAME</t>
+  </si>
+  <si>
+    <t>REQUESTED_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>REQUESTED_MANAGER</t>
+  </si>
+  <si>
+    <t>Tribe/Tribal Agency</t>
+  </si>
+  <si>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>AutoCase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>PLACEMENT_STABILITY_TAB</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_RISK</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIBE_PLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERSTAY_REPORT_TAB</t>
+  </si>
+  <si>
+    <t>CARE_SETTINGS</t>
+  </si>
+  <si>
+    <t>OVERSTAY_REASON</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN</t>
+  </si>
+  <si>
+    <t>CHILDNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>NAMEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
+  </si>
+  <si>
+    <t>NUMBEROFDAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEPIENT</t>
+  </si>
+  <si>
+    <t>RECEPIENT_LINK</t>
+  </si>
+  <si>
+    <t>TITLE_IV_AGENCY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Crisis Nursery</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta2</t>
+  </si>
+  <si>
+    <t>07 Contra Costa</t>
+  </si>
+  <si>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>BIRTHDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEXATBIRTH_VERIFY</t>
+  </si>
+  <si>
+    <t>CL_ADDRESS_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>DATE_REASONABLE_EFFORTS</t>
+  </si>
+  <si>
+    <t>DATE_PLACEMENT_CARE</t>
+  </si>
+  <si>
+    <t>testT4213</t>
+  </si>
+  <si>
+    <t>CSERI_TAB</t>
+  </si>
+  <si>
+    <t>CW51_TAB</t>
+  </si>
+  <si>
+    <t>NAME_OF_PARENT</t>
+  </si>
+  <si>
+    <t>IS_THERE_GOOD_CAUSE_RB</t>
+  </si>
+  <si>
+    <t>REASON_FOR_GOOD_CAUSE_CB</t>
+  </si>
+  <si>
+    <t>CP_IDENTIFIED_PARENT_NAME</t>
+  </si>
+  <si>
+    <t>Yes - Do Not Refer for Child Support</t>
+  </si>
+  <si>
+    <t>Parents' annual income is less than $100,000 or 400% of the federal poverty level</t>
+  </si>
+  <si>
+    <t>MERI_TAB</t>
+  </si>
+  <si>
+    <t>MC250_TAB</t>
+  </si>
+  <si>
+    <t>MED_APPLICATION_TYPE</t>
+  </si>
+  <si>
+    <t>CHILD_UNDER_INSTITUTION_CODE_602</t>
+  </si>
+  <si>
+    <t>MONTHLY_AMT_PAID</t>
+  </si>
+  <si>
+    <t>DATE_OF_PLACEMENT</t>
+  </si>
+  <si>
+    <t>SSI_SSP_APPLICATION</t>
+  </si>
+  <si>
+    <t>Redetermination</t>
+  </si>
+  <si>
+    <t>autoNumber</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY_TYPE</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>Extended Foster Care</t>
+  </si>
+  <si>
+    <t>TILP</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>HOME_OF_REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>PARENT_LG_IC_NAME</t>
+  </si>
+  <si>
+    <t>SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>VIEW_ALL_BTN</t>
+  </si>
+  <si>
+    <t>PARENT_ID_LINK</t>
+  </si>
+  <si>
+    <t>SIBLING_ID_LINK</t>
+  </si>
+  <si>
+    <t>CP_SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>FCERI_TAB</t>
+  </si>
+  <si>
+    <t>SOC158A_TAB</t>
+  </si>
+  <si>
+    <t>FC2_TAB</t>
+  </si>
+  <si>
+    <t>ARC1_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TERMINATION_DATE</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_OUT_COUNTY</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_IN_COUNTY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_COMPLETING_FORM</t>
+  </si>
+  <si>
+    <t>PERSON1NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVAL_REASON_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>RECORDALERTS_AND_TASKSTAB</t>
+  </si>
+  <si>
+    <t>DROPDOWN_MENU_BTN</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>ASSIGNNED_TO_CLEAR_BTN</t>
+  </si>
+  <si>
+    <t>MARK_COMPLETE_BTN</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PRIMARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>SECONDARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNEE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>START_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>END_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
+  </si>
+  <si>
+    <t>TO_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>FROM_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>REQUEST_FOR_INFO_CATEGORIES</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Child Support Referral Info</t>
+  </si>
+  <si>
+    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
+  </si>
+  <si>
+    <t>CHILD_INCOME_PROPERTY_TAB</t>
+  </si>
+  <si>
+    <t>INCOME_TYPE</t>
+  </si>
+  <si>
+    <t>INCOME_SUBTYPE</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>PROPERTY_TYPE</t>
+  </si>
+  <si>
+    <t>PROPERTY_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CURRENT_VALUE</t>
+  </si>
+  <si>
+    <t>Child Support Income</t>
+  </si>
+  <si>
+    <t>Child Support - Direct</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>auotNumber</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>ARC 2</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Random Text</t>
+  </si>
+  <si>
+    <t>ChildLocationSTRTPID</t>
+  </si>
+  <si>
+    <t>Placement Decision</t>
+  </si>
+  <si>
+    <t>Placement Approval</t>
+  </si>
+  <si>
+    <t>SCROLL_INTO_ELEMENT</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_END_DATE_TIME</t>
+  </si>
+  <si>
+    <t>Autocase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_DETAILS_OF_TRANSITION_PLAN</t>
+  </si>
+  <si>
+    <t>INSPECTIONS_TAB</t>
+  </si>
+  <si>
+    <t>HOME_SAFE</t>
+  </si>
+  <si>
+    <t>REINSPECTION_REQUIRED</t>
+  </si>
+  <si>
+    <t>CHILD_CARE_NEEDS_MET</t>
+  </si>
+  <si>
+    <t>ProviderOption_ID2</t>
+  </si>
+  <si>
     <t>Resource Family Home</t>
   </si>
   <si>
-    <t>Tribally Approved Home</t>
-  </si>
-  <si>
-    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
-  </si>
-  <si>
-    <t>Boardman</t>
-  </si>
-  <si>
-    <t>Option Willing to Accept</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Qualified Individual Assessment Report</t>
-  </si>
-  <si>
-    <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
-  </si>
-  <si>
-    <t>PROVIDER_OPTIONS</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTIONS_RECORD</t>
-  </si>
-  <si>
-    <t>EMERGENCY_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>OTHER_REASON</t>
-  </si>
-  <si>
-    <t>PROVIDER_OPTIONID</t>
-  </si>
-  <si>
-    <t>TASK_TAB</t>
-  </si>
-  <si>
-    <t>VERIFY_TASK</t>
-  </si>
-  <si>
-    <t>DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE</t>
-  </si>
-  <si>
-    <t>Home is unsafe</t>
-  </si>
-  <si>
-    <t>ProviderOption_ID1</t>
-  </si>
-  <si>
-    <t>Open to Future Placement</t>
-  </si>
-  <si>
-    <t>DUE_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>Informing notice</t>
-  </si>
-  <si>
-    <t>Mediun</t>
-  </si>
-  <si>
-    <t>RECORD_ALERT_AND_TASK</t>
-  </si>
-  <si>
-    <t>DATA_CORRECTION_RECORD</t>
-  </si>
-  <si>
-    <t>AutoRFA ClericalWorker Ccosta</t>
-  </si>
-  <si>
-    <t>BACKGROUND_CHECKS_TAB</t>
-  </si>
-  <si>
-    <t>BACKGROUND_ENTITY</t>
-  </si>
-  <si>
-    <t>PERSON_NAME</t>
-  </si>
-  <si>
-    <t>REQUESTED_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>BACKGROUND_CHECK_TYPE</t>
-  </si>
-  <si>
-    <t>REQUESTED_MANAGER</t>
-  </si>
-  <si>
-    <t>Tribe/Tribal Agency</t>
-  </si>
-  <si>
-    <t>CACI</t>
-  </si>
-  <si>
-    <t>AutoCase4201 worker 4201</t>
-  </si>
-  <si>
-    <t>PLACEMENT_STABILITY_TAB</t>
-  </si>
-  <si>
-    <t>SHOW_ACTIONS</t>
-  </si>
-  <si>
-    <t>EDIT</t>
-  </si>
-  <si>
-    <t>PLACEMENT_RISK</t>
-  </si>
-  <si>
-    <t>STEPS_TAKEN_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIBE_PLACEMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERSTAY_REPORT_TAB</t>
-  </si>
-  <si>
-    <t>CARE_SETTINGS</t>
-  </si>
-  <si>
-    <t>OVERSTAY_REASON</t>
-  </si>
-  <si>
-    <t>STEPS_TAKEN</t>
-  </si>
-  <si>
-    <t>CHILDNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>TYPEOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>NAMEOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESSOFFACILITY_VERIFY</t>
-  </si>
-  <si>
-    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
-  </si>
-  <si>
-    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
-  </si>
-  <si>
-    <t>NUMBEROFDAYS_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEPIENT</t>
-  </si>
-  <si>
-    <t>RECEPIENT_LINK</t>
-  </si>
-  <si>
-    <t>TITLE_IV_AGENCY</t>
-  </si>
-  <si>
-    <t>OVERSTAYREPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Crisis Nursery</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
-    <t>CMWorkerContraCosta2</t>
-  </si>
-  <si>
-    <t>07 Contra Costa</t>
-  </si>
-  <si>
-    <t>NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>BIRTHDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>SEXATBIRTH_VERIFY</t>
-  </si>
-  <si>
-    <t>CL_ADDRESS_VERIFY</t>
-  </si>
-  <si>
-    <t>REMOVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>PLACEMENTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_CONTINUANCE</t>
-  </si>
-  <si>
-    <t>DATE_REASONABLE_EFFORTS</t>
-  </si>
-  <si>
-    <t>DATE_PLACEMENT_CARE</t>
-  </si>
-  <si>
-    <t>testT4213</t>
-  </si>
-  <si>
-    <t>CSERI_TAB</t>
-  </si>
-  <si>
-    <t>CW51_TAB</t>
-  </si>
-  <si>
-    <t>NAME_OF_PARENT</t>
-  </si>
-  <si>
-    <t>IS_THERE_GOOD_CAUSE_RB</t>
-  </si>
-  <si>
-    <t>REASON_FOR_GOOD_CAUSE_CB</t>
-  </si>
-  <si>
-    <t>CP_IDENTIFIED_PARENT_NAME</t>
-  </si>
-  <si>
-    <t>Yes - Do Not Refer for Child Support</t>
-  </si>
-  <si>
-    <t>Parents' annual income is less than $100,000 or 400% of the federal poverty level</t>
-  </si>
-  <si>
-    <t>MERI_TAB</t>
-  </si>
-  <si>
-    <t>MC250_TAB</t>
-  </si>
-  <si>
-    <t>MED_APPLICATION_TYPE</t>
-  </si>
-  <si>
-    <t>CHILD_UNDER_INSTITUTION_CODE_602</t>
-  </si>
-  <si>
-    <t>MONTHLY_AMT_PAID</t>
-  </si>
-  <si>
-    <t>DATE_OF_PLACEMENT</t>
-  </si>
-  <si>
-    <t>SSI_SSP_APPLICATION</t>
-  </si>
-  <si>
-    <t>Redetermination</t>
-  </si>
-  <si>
-    <t>autoNumber</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPDATE_CATEGORY_TYPE</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>TITLE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTTYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_SENT_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>Extended Foster Care</t>
-  </si>
-  <si>
-    <t>TILP</t>
-  </si>
-  <si>
-    <t>FINAL</t>
-  </si>
-  <si>
-    <t>HOME_OF_REMOVAL_TAB</t>
-  </si>
-  <si>
-    <t>PARENT_LG_IC_NAME</t>
-  </si>
-  <si>
-    <t>SIBLING_NAME</t>
-  </si>
-  <si>
-    <t>VIEW_ALL_BTN</t>
-  </si>
-  <si>
-    <t>PARENT_ID_LINK</t>
-  </si>
-  <si>
-    <t>SIBLING_ID_LINK</t>
-  </si>
-  <si>
-    <t>CP_SIBLING_NAME</t>
-  </si>
-  <si>
-    <t>FCERI_TAB</t>
-  </si>
-  <si>
-    <t>SOC158A_TAB</t>
-  </si>
-  <si>
-    <t>FC2_TAB</t>
-  </si>
-  <si>
-    <t>ARC1_TAB</t>
-  </si>
-  <si>
-    <t>PLACEMENT_TERMINATION_DATE</t>
-  </si>
-  <si>
-    <t>TRANSFERRING_OUT_COUNTY</t>
-  </si>
-  <si>
-    <t>TRANSFERRING_IN_COUNTY</t>
-  </si>
-  <si>
-    <t>REASON_FOR_COMPLETING_FORM</t>
-  </si>
-  <si>
-    <t>PERSON1NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>REMOVAL_REASON_VERIFY</t>
-  </si>
-  <si>
-    <t>REMOVED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
-  </si>
-  <si>
-    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
-  </si>
-  <si>
-    <t>Alameda</t>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Not available</t>
-  </si>
-  <si>
-    <t>RECORDALERTS_AND_TASKSTAB</t>
-  </si>
-  <si>
-    <t>DROPDOWN_MENU_BTN</t>
-  </si>
-  <si>
-    <t>DUE_DATE</t>
-  </si>
-  <si>
-    <t>ASSIGNNED_TO_CLEAR_BTN</t>
-  </si>
-  <si>
-    <t>MARK_COMPLETE_BTN</t>
-  </si>
-  <si>
-    <t>ASSIGNMENTS_TAB</t>
-  </si>
-  <si>
-    <t>PRIMARY_ASSIGNMENTID_LINK</t>
-  </si>
-  <si>
-    <t>SECONDARY_ASSIGNMENTID_LINK</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSIGNEE_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>WORKER_ROLE_VERIFY</t>
-  </si>
-  <si>
-    <t>START_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>END_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
-  </si>
-  <si>
-    <t>TO_CALSAWS_TAB</t>
-  </si>
-  <si>
-    <t>FROM_CALSAWS_TAB</t>
-  </si>
-  <si>
-    <t>REQUEST_FOR_INFO_CATEGORIES</t>
-  </si>
-  <si>
-    <t>COMMUNICATION_CONTENT</t>
-  </si>
-  <si>
-    <t>CARES_TRANSACTION_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>COMMUNICATION_CONTENT_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Child Support Referral Info</t>
-  </si>
-  <si>
-    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
-  </si>
-  <si>
-    <t>CHILD_INCOME_PROPERTY_TAB</t>
-  </si>
-  <si>
-    <t>INCOME_TYPE</t>
-  </si>
-  <si>
-    <t>INCOME_SUBTYPE</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>PROPERTY_TYPE</t>
-  </si>
-  <si>
-    <t>PROPERTY_SUBTYPE</t>
-  </si>
-  <si>
-    <t>CURRENT_VALUE</t>
-  </si>
-  <si>
-    <t>Child Support Income</t>
-  </si>
-  <si>
-    <t>Child Support - Direct</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Cash on Hand</t>
-  </si>
-  <si>
-    <t>auotNumber</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>GENERATE_BTN</t>
-  </si>
-  <si>
-    <t>ARC 2</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Group Home (GH)</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Random Text</t>
-  </si>
-  <si>
-    <t>ChildLocationSTRTPID</t>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PREFERENCE_AND_NEED</t>
+  </si>
+  <si>
+    <t>NAME_OF_TRIBE</t>
+  </si>
+  <si>
+    <t>TRIBE_PREFERENCE_MATCH</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE1</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE2</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE4</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE3</t>
+  </si>
+  <si>
+    <t>NAME_OF_TRIBAL_REPRESENTATIVE</t>
+  </si>
+  <si>
+    <t>TRIBAL_PREFERENCE_NARRATIVE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_iNFORMATION</t>
+  </si>
+  <si>
+    <t>CALL_DATE_AND_TIME</t>
   </si>
   <si>
     <t>testT4258</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1427,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1387,10 +1452,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,12 +1498,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1452,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1471,7 +1530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1788,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2056,63 +2114,63 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2122,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2156,6 +2214,7 @@
     <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -2169,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2178,94 +2237,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>204</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>205</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>206</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>208</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>209</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
         <v>210</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
         <v>211</v>
       </c>
-      <c r="P1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>214</v>
-      </c>
       <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
         <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>112</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD1" t="s">
         <v>215</v>
       </c>
-      <c r="Y1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>216</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>221</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2285,7 +2344,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -2294,10 +2353,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2318,13 +2377,13 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2392,10 +2451,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2404,10 +2463,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>226</v>
+        <v>431</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2428,13 +2487,13 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2502,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2514,10 +2573,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2538,13 +2597,13 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2615,7 +2674,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2624,10 +2683,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2648,13 +2707,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2725,7 +2784,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2734,10 +2793,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2758,13 +2817,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2815,116 +2874,6 @@
         <v>20</v>
       </c>
       <c r="AJ6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="18">
-        <v>1234512345</v>
-      </c>
-      <c r="M7" s="18">
-        <v>10</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="18">
-        <v>97818</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ7" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2939,7 +2888,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2965,28 +2914,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3006,19 +2955,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -3041,19 +2990,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -3066,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3090,10 +3039,11 @@
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,58 +3054,61 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>249</v>
-      </c>
-      <c r="K1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" t="s">
-        <v>253</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3137,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>27</v>
@@ -3193,16 +3146,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3216,8 +3169,11 @@
       <c r="T2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U2" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -3264,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3278,8 +3234,11 @@
       <c r="T3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U3" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3299,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3326,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3341,7 +3300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -3364,10 +3323,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>27</v>
@@ -3376,7 +3335,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3397,7 +3356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -3457,6 +3416,9 @@
       </c>
       <c r="T6" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3493,25 +3455,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
       <c r="H1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3531,13 +3493,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3561,11 +3523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3578,13 +3543,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3607,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3623,7 +3588,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3639,25 +3604,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I1" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="J1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3680,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3689,10 +3654,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3704,11 +3669,144 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42BE229-D77F-4DCD-A7F5-94D3D8DEF9FF}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" customWidth="1"/>
+    <col min="10" max="11" width="30.453125" customWidth="1"/>
+    <col min="12" max="14" width="35.1796875" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
+    <col min="16" max="16" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179466CA-0BE6-4384-819E-AC7F7D56F1E6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3723,57 +3821,57 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3782,11 +3880,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -3798,9 +3975,18 @@
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22.1796875" customWidth="1"/>
+    <col min="19" max="19" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
@@ -3817,70 +4003,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3900,13 +4086,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3939,10 +4125,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3951,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3965,12 +4151,515 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" activeCellId="1" sqref="K5 L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="18" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4000,31 +4689,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -4032,7 +4721,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4076,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4106,19 +4795,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -4126,7 +4815,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4141,13 +4830,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -4158,515 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AG6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4699,25 +4880,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" t="s">
         <v>323</v>
-      </c>
-      <c r="F1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" t="s">
-        <v>328</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4725,7 +4906,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4740,13 +4921,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4763,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
@@ -4813,81 +4994,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
         <v>233</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" t="s">
-        <v>237</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>333</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>334</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>335</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>337</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>338</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>339</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>341</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>342</v>
-      </c>
-      <c r="W1" t="s">
-        <v>343</v>
-      </c>
-      <c r="X1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4902,19 +5083,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4925,7 +5106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4957,33 +5138,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4998,10 +5179,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -5012,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -5054,57 +5235,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>359</v>
-      </c>
-      <c r="F1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" t="s">
-        <v>364</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q1" t="s">
         <v>365</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>366</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>367</v>
-      </c>
-      <c r="O1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P1" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>370</v>
-      </c>
-      <c r="R1" t="s">
-        <v>371</v>
-      </c>
-      <c r="S1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5128,16 +5309,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -5166,13 +5347,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5203,45 +5382,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
       <c r="J1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5257,13 +5436,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
         <v>151</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -5275,7 +5454,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -5289,7 +5468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -5328,49 +5507,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5432,7 +5611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5469,42 +5648,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5525,10 +5704,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5551,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -5585,33 +5764,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5623,25 +5802,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" t="s">
         <v>409</v>
-      </c>
-      <c r="F2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K2" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -5649,7 +5828,273 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5679,21 +6124,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5705,10 +6150,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5716,272 +6161,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="P3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5989,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6034,16 +6213,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -6052,64 +6231,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -6118,22 +6297,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -6170,7 +6349,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -6179,20 +6358,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -6204,13 +6383,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -6249,32 +6428,35 @@
       <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -6286,7 +6468,25 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -6320,32 +6520,35 @@
       <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>130</v>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -6357,7 +6560,25 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6372,7 +6593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -6407,70 +6628,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6493,22 +6714,22 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -6520,16 +6741,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
         <v>151</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>153</v>
-      </c>
-      <c r="R2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6549,22 +6770,22 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -6576,19 +6797,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
         <v>151</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>153</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>154</v>
-      </c>
-      <c r="S3" t="s">
-        <v>155</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6723,10 +6944,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6742,16 +6963,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6795,6 +7016,26 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6805,8 +7046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6822,130 +7063,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6994,7 +7235,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -7009,13 +7250,13 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>27</v>
@@ -7030,7 +7271,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>
@@ -7051,16 +7292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7277,7 +7508,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7286,17 +7517,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7315,10 +7546,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6122894C-3DC0-43D3-B53E-2150AEEA2E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E790949-9FF9-4CE9-9331-DCFC4C4A1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="15" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="463">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1403,6 +1403,57 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>SAVE_BTN2</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES2</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES3</t>
+  </si>
+  <si>
+    <t>ALCOHOL_OF_CHOICE_VERIFY</t>
+  </si>
+  <si>
+    <t>ALCOHOL_CONSUMPTION_LEVEL_VERIFY</t>
+  </si>
+  <si>
+    <t>CHILD_ALCOHOL_USE_INFORMATION</t>
+  </si>
+  <si>
+    <t>CHILD_DRUG_USE_INFORMATION</t>
+  </si>
+  <si>
+    <t>DEPRESSANTS</t>
+  </si>
+  <si>
+    <t>SUBSTANCE_USER_1</t>
+  </si>
+  <si>
+    <t>Child Alchol Use</t>
+  </si>
+  <si>
+    <t>Child Drug Use</t>
+  </si>
+  <si>
+    <t>Prenatal Drug Exposure</t>
+  </si>
+  <si>
+    <t>Binge Drinking</t>
+  </si>
+  <si>
+    <t>Depressants</t>
+  </si>
+  <si>
+    <t>Caretaker's Drug Use</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>GHP</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1506,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1498,6 +1549,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1511,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,6 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1860,11 +1918,22 @@
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" customWidth="1"/>
+    <col min="15" max="15" width="27.453125" customWidth="1"/>
     <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.7265625" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" customWidth="1"/>
+    <col min="21" max="21" width="21.7265625" customWidth="1"/>
+    <col min="22" max="22" width="23.81640625" customWidth="1"/>
+    <col min="23" max="23" width="26.7265625" customWidth="1"/>
+    <col min="24" max="24" width="35.81640625" customWidth="1"/>
+    <col min="25" max="25" width="32.7265625" customWidth="1"/>
+    <col min="26" max="26" width="35.1796875" customWidth="1"/>
+    <col min="27" max="27" width="20.08984375" customWidth="1"/>
+    <col min="28" max="28" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,8 +1991,35 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1937,7 +2033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1995,8 +2091,11 @@
       <c r="S3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -2054,8 +2153,11 @@
       <c r="S4" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -2113,8 +2215,11 @@
       <c r="S5" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2172,9 +2277,185 @@
       <c r="S6" s="10" t="s">
         <v>424</v>
       </c>
+      <c r="T6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3672,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42BE229-D77F-4DCD-A7F5-94D3D8DEF9FF}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3782,7 +4063,9 @@
       <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" s="13" t="s">
         <v>27</v>
       </c>
@@ -7292,6 +7575,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7508,26 +7810,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7546,24 +7847,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739CF8D5-BC77-4E99-BD0A-08C6FF3D3EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2573908-4078-4B62-B7D3-6D80128034B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -7160,7 +7160,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -8473,7 +8473,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>138</v>
@@ -9180,7 +9180,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2573908-4078-4B62-B7D3-6D80128034B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC5749-E78C-4B58-B8CC-06FFF1DCB6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="541">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1645,6 +1645,54 @@
   </si>
   <si>
     <t>testT4258</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES2</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES3</t>
+  </si>
+  <si>
+    <t>Child Drug Use</t>
+  </si>
+  <si>
+    <t>Child Alcohol Use</t>
+  </si>
+  <si>
+    <t>Prenatal Drug Exposure</t>
+  </si>
+  <si>
+    <t>ALCOHOL_OF_CHOICE_VERIFY</t>
+  </si>
+  <si>
+    <t>ALCOHOL_CONSUMPTION_LEVEL_VERIFY</t>
+  </si>
+  <si>
+    <t>CHILD_ALCOHOL_USE_INFORMATION</t>
+  </si>
+  <si>
+    <t>STIMULANTS</t>
+  </si>
+  <si>
+    <t>DEPRESSANTS</t>
+  </si>
+  <si>
+    <t>Binge Drinking</t>
+  </si>
+  <si>
+    <t>Cocaine</t>
+  </si>
+  <si>
+    <t>GHP</t>
+  </si>
+  <si>
+    <t>Caretaker's Drug Use</t>
+  </si>
+  <si>
+    <t>SUBSTANCE_USER_1</t>
+  </si>
+  <si>
+    <t>SAVE_BTN2</t>
   </si>
 </sst>
 </file>
@@ -2163,30 +2211,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:V11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" customWidth="1"/>
+    <col min="10" max="10" width="27.90625" customWidth="1"/>
+    <col min="11" max="11" width="34.36328125" customWidth="1"/>
+    <col min="12" max="12" width="40.453125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="28.08984375" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="55" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" customWidth="1"/>
+    <col min="18" max="18" width="28.90625" customWidth="1"/>
     <col min="19" max="19" width="25.1796875" customWidth="1"/>
     <col min="20" max="20" width="15.1796875" customWidth="1"/>
     <col min="22" max="22" width="18.26953125" customWidth="1"/>
+    <col min="23" max="23" width="22.7265625" customWidth="1"/>
+    <col min="24" max="24" width="25.26953125" customWidth="1"/>
+    <col min="25" max="25" width="30.1796875" customWidth="1"/>
+    <col min="26" max="26" width="36.90625" customWidth="1"/>
+    <col min="27" max="27" width="34.6328125" customWidth="1"/>
+    <col min="28" max="28" width="14.90625" customWidth="1"/>
+    <col min="29" max="29" width="14.36328125" customWidth="1"/>
+    <col min="30" max="30" width="19.08984375" customWidth="1"/>
+    <col min="31" max="31" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,8 +2318,35 @@
       <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>525</v>
+      </c>
+      <c r="X1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2268,7 +2360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:31">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2327,7 +2419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="5" customFormat="1">
+    <row r="4" spans="1:31" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1">
+    <row r="5" spans="1:31" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2448,7 +2540,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1">
+    <row r="6" spans="1:31" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2510,7 +2602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1">
+    <row r="7" spans="1:31" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2575,7 +2667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:31">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2637,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:31">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2793,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1">
+    <row r="10" spans="1:31" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2763,7 +2855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:31">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2826,6 +2918,92 @@
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
+    </row>
+    <row r="12" spans="1:31" s="13" customFormat="1">
+      <c r="A12" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7159,7 +7337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -11138,16 +11316,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -11364,7 +11532,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11373,17 +11541,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11402,10 +11570,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC5749-E78C-4B58-B8CC-06FFF1DCB6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B009B86-063D-4438-B81A-F771DEBC59E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="541">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2976,6 +2976,9 @@
       </c>
       <c r="S12" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="W12" s="13" t="s">
         <v>528</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B009B86-063D-4438-B81A-F771DEBC59E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B655E5B0-7C54-4282-B62D-F46F2F83EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="545">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1674,18 +1674,12 @@
     <t>STIMULANTS</t>
   </si>
   <si>
-    <t>DEPRESSANTS</t>
-  </si>
-  <si>
     <t>Binge Drinking</t>
   </si>
   <si>
     <t>Cocaine</t>
   </si>
   <si>
-    <t>GHP</t>
-  </si>
-  <si>
     <t>Caretaker's Drug Use</t>
   </si>
   <si>
@@ -1693,6 +1687,24 @@
   </si>
   <si>
     <t>SAVE_BTN2</t>
+  </si>
+  <si>
+    <t>DRUG_USE_CATEGORY1</t>
+  </si>
+  <si>
+    <t>DRUG_USE_CATEGORY2</t>
+  </si>
+  <si>
+    <t>Marijuana Concentrates(*includes edibles)</t>
+  </si>
+  <si>
+    <t>Marijuana/Cannabis</t>
+  </si>
+  <si>
+    <t>MARIJUANA</t>
+  </si>
+  <si>
+    <t>Stimulants</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2246,12 +2258,12 @@
     <col min="26" max="26" width="36.90625" customWidth="1"/>
     <col min="27" max="27" width="34.6328125" customWidth="1"/>
     <col min="28" max="28" width="14.90625" customWidth="1"/>
-    <col min="29" max="29" width="14.36328125" customWidth="1"/>
-    <col min="30" max="30" width="19.08984375" customWidth="1"/>
-    <col min="31" max="31" width="12.90625" customWidth="1"/>
+    <col min="29" max="31" width="23.81640625" customWidth="1"/>
+    <col min="32" max="32" width="19.08984375" customWidth="1"/>
+    <col min="33" max="33" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,16 +2349,22 @@
         <v>533</v>
       </c>
       <c r="AC1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AD1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AE1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>543</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:33">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2419,7 +2437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1">
+    <row r="4" spans="1:33" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="11" customFormat="1">
+    <row r="5" spans="1:33" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2539,8 +2557,10 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="1:31" s="5" customFormat="1">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+    </row>
+    <row r="6" spans="1:33" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2602,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="5" customFormat="1">
+    <row r="7" spans="1:33" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2667,7 +2687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:33">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2729,7 +2749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:33">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2793,7 +2813,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:31" s="5" customFormat="1">
+    <row r="10" spans="1:33" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2855,7 +2875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:33">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2919,7 +2939,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1">
+    <row r="12" spans="1:33" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>524</v>
       </c>
@@ -2963,7 +2983,7 @@
         <v>529</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>30</v>
@@ -2977,7 +2997,13 @@
       <c r="S12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="W12" s="13" t="s">
@@ -2993,18 +3019,24 @@
         <v>85</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>536</v>
-      </c>
       <c r="AC12" s="13" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>23</v>
+        <v>542</v>
       </c>
       <c r="AE12" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B655E5B0-7C54-4282-B62D-F46F2F83EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE76DD6-36EC-44F8-8829-5109B3F1459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="546">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1695,9 +1695,6 @@
     <t>DRUG_USE_CATEGORY2</t>
   </si>
   <si>
-    <t>Marijuana Concentrates(*includes edibles)</t>
-  </si>
-  <si>
     <t>Marijuana/Cannabis</t>
   </si>
   <si>
@@ -1705,6 +1702,12 @@
   </si>
   <si>
     <t>Stimulants</t>
+  </si>
+  <si>
+    <t>Vaping</t>
+  </si>
+  <si>
+    <t>NEW_BTN2</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2261,9 +2264,10 @@
     <col min="29" max="31" width="23.81640625" customWidth="1"/>
     <col min="32" max="32" width="19.08984375" customWidth="1"/>
     <col min="33" max="33" width="12.90625" customWidth="1"/>
+    <col min="34" max="34" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>540</v>
       </c>
       <c r="AE1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF1" t="s">
         <v>537</v>
@@ -2363,8 +2367,11 @@
       <c r="AG1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2437,7 +2444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1">
+    <row r="4" spans="1:34" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="11" customFormat="1">
+    <row r="5" spans="1:34" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2567,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:33" s="5" customFormat="1">
+    <row r="6" spans="1:34" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1">
+    <row r="7" spans="1:34" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2813,7 +2820,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1">
+    <row r="10" spans="1:34" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2939,7 +2946,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:33" s="13" customFormat="1">
+    <row r="12" spans="1:34" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>524</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>23</v>
@@ -3025,18 +3032,21 @@
         <v>535</v>
       </c>
       <c r="AC12" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>541</v>
-      </c>
       <c r="AF12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AG12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE76DD6-36EC-44F8-8829-5109B3F1459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AF3B8C-F93D-4107-97A9-B169F5A94C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="545">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1684,9 +1684,6 @@
   </si>
   <si>
     <t>SUBSTANCE_USER_1</t>
-  </si>
-  <si>
-    <t>SAVE_BTN2</t>
   </si>
   <si>
     <t>DRUG_USE_CATEGORY1</t>
@@ -2226,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2263,11 +2260,10 @@
     <col min="28" max="28" width="14.90625" customWidth="1"/>
     <col min="29" max="31" width="23.81640625" customWidth="1"/>
     <col min="32" max="32" width="19.08984375" customWidth="1"/>
-    <col min="33" max="33" width="12.90625" customWidth="1"/>
-    <col min="34" max="34" width="12.1796875" customWidth="1"/>
+    <col min="33" max="33" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,25 +2349,22 @@
         <v>533</v>
       </c>
       <c r="AC1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD1" t="s">
         <v>539</v>
       </c>
-      <c r="AD1" t="s">
-        <v>540</v>
-      </c>
       <c r="AE1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF1" t="s">
         <v>537</v>
       </c>
       <c r="AG1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2385,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1">
+    <row r="4" spans="1:33" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2503,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="11" customFormat="1">
+    <row r="5" spans="1:33" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2567,7 +2560,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:34" s="5" customFormat="1">
+    <row r="6" spans="1:33" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2629,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="5" customFormat="1">
+    <row r="7" spans="1:33" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2694,7 +2687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:33">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2820,7 +2813,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1">
+    <row r="10" spans="1:33" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2882,7 +2875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:33">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2946,7 +2939,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:34" s="13" customFormat="1" ht="14" customHeight="1">
+    <row r="12" spans="1:33" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>524</v>
       </c>
@@ -2996,7 +2989,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R12" s="13" t="s">
         <v>30</v>
@@ -3032,21 +3025,18 @@
         <v>535</v>
       </c>
       <c r="AC12" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>544</v>
-      </c>
       <c r="AF12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AG12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH12" s="13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AF3B8C-F93D-4107-97A9-B169F5A94C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FFE0A5-651F-484B-A68F-EAB49C875186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -1680,9 +1680,6 @@
     <t>Cocaine</t>
   </si>
   <si>
-    <t>Caretaker's Drug Use</t>
-  </si>
-  <si>
     <t>SUBSTANCE_USER_1</t>
   </si>
   <si>
@@ -1705,6 +1702,9 @@
   </si>
   <si>
     <t>NEW_BTN2</t>
+  </si>
+  <si>
+    <t>Caretaker’s Drug Use</t>
   </si>
 </sst>
 </file>
@@ -2225,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2349,19 +2349,19 @@
         <v>533</v>
       </c>
       <c r="AC1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD1" t="s">
         <v>538</v>
       </c>
-      <c r="AD1" t="s">
-        <v>539</v>
-      </c>
       <c r="AE1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -2983,7 +2983,7 @@
         <v>529</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>30</v>
@@ -3025,13 +3025,13 @@
         <v>535</v>
       </c>
       <c r="AC12" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>23</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FFE0A5-651F-484B-A68F-EAB49C875186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9907BF3C-447E-4FF4-8098-1FE744900CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="550">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1705,6 +1705,21 @@
   </si>
   <si>
     <t>Caretaker’s Drug Use</t>
+  </si>
+  <si>
+    <t>HEADERREMOVALID</t>
+  </si>
+  <si>
+    <t>HEADEREPISODENUMBER</t>
+  </si>
+  <si>
+    <t>HEADERREMOVALDATEANDTIME</t>
+  </si>
+  <si>
+    <t>HEADERDOCUMENTATIONSTATUS</t>
+  </si>
+  <si>
+    <t>HEADERPRIMERYREASONFORREMOVAL</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2261,9 +2276,14 @@
     <col min="29" max="31" width="23.81640625" customWidth="1"/>
     <col min="32" max="32" width="19.08984375" customWidth="1"/>
     <col min="33" max="33" width="12.1796875" customWidth="1"/>
+    <col min="34" max="34" width="21.26953125" customWidth="1"/>
+    <col min="35" max="35" width="26.08984375" customWidth="1"/>
+    <col min="36" max="36" width="30.1796875" customWidth="1"/>
+    <col min="37" max="37" width="33.1796875" customWidth="1"/>
+    <col min="38" max="38" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2363,8 +2383,23 @@
       <c r="AG1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:38">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2437,7 +2472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1">
+    <row r="4" spans="1:38" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="11" customFormat="1">
+    <row r="5" spans="1:38" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2595,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:33" s="5" customFormat="1">
+    <row r="6" spans="1:38" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1">
+    <row r="7" spans="1:38" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:38">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2749,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:38">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2813,7 +2848,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1">
+    <row r="10" spans="1:38" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2875,7 +2910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:38">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2939,7 +2974,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:33" s="13" customFormat="1" ht="14" customHeight="1">
+    <row r="12" spans="1:38" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>524</v>
       </c>
@@ -3034,14 +3069,30 @@
         <v>542</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG12" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9907BF3C-447E-4FF4-8098-1FE744900CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E18905-FA66-4FDB-9F7C-6BA0D157472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3036,7 +3036,7 @@
         <v>30</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="V12" s="13" t="s">
         <v>30</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E18905-FA66-4FDB-9F7C-6BA0D157472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89ABEF58-D1AD-438B-857C-DBFC0C1BEE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="571">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -486,6 +486,9 @@
     <t>PLACEMENT_NAME_AGAIN</t>
   </si>
   <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
     <t>autoText</t>
   </si>
   <si>
@@ -525,6 +528,12 @@
     <t>Transitional Housing Placement Program (THPP)</t>
   </si>
   <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>InterfaceTestingLocation</t>
+  </si>
+  <si>
     <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
   </si>
   <si>
@@ -570,6 +579,15 @@
     <t>SCROLL_INTO_ELEMENT</t>
   </si>
   <si>
+    <t>DOESQIAPPROVESSTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>DOESCOURTAPPROVESTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>COURTORDERAPPROVALDATE</t>
+  </si>
+  <si>
     <t>Open to Future Placement</t>
   </si>
   <si>
@@ -597,6 +615,12 @@
     <t>Random Text</t>
   </si>
   <si>
+    <t>QI Assessment Approves</t>
+  </si>
+  <si>
+    <t>STRTP Placement Granted</t>
+  </si>
+  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -1368,6 +1392,30 @@
     <t>REASON_FOR_GOOD_CAUSE_CB</t>
   </si>
   <si>
+    <t>CSQRTP_TAB</t>
+  </si>
+  <si>
+    <t>CSQRTP_DETERMINATION_TAB</t>
+  </si>
+  <si>
+    <t>QIASSESSMENT_APPROVAL</t>
+  </si>
+  <si>
+    <t>COURT_APPROVED</t>
+  </si>
+  <si>
+    <t>ACCREDITED</t>
+  </si>
+  <si>
+    <t>QIASSESSMENT_COMPLETEDATE</t>
+  </si>
+  <si>
+    <t>COURT_DETERMINATION_DATE</t>
+  </si>
+  <si>
+    <t>ACCREDITATION_BEGIN_DATE</t>
+  </si>
+  <si>
     <t>Yes - Do Not Refer for Child Support</t>
   </si>
   <si>
@@ -1644,24 +1692,57 @@
     <t>HEADER_NEW_VALUE</t>
   </si>
   <si>
+    <t>VERIFY_SUCCESS_MESSAGE</t>
+  </si>
+  <si>
+    <t>FOURTEEN_DAYS_NOTICE_ID</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Removal_ID1</t>
+  </si>
+  <si>
     <t>testT4258</t>
   </si>
   <si>
+    <t>Prenatal Drug Exposure</t>
+  </si>
+  <si>
+    <t>Caretaker’s Drug Use</t>
+  </si>
+  <si>
+    <t>Child Alcohol Use</t>
+  </si>
+  <si>
+    <t>Child Drug Use</t>
+  </si>
+  <si>
+    <t>Binge Drinking</t>
+  </si>
+  <si>
+    <t>Cocaine</t>
+  </si>
+  <si>
+    <t>Stimulants</t>
+  </si>
+  <si>
+    <t>Marijuana/Cannabis</t>
+  </si>
+  <si>
+    <t>Vaping</t>
+  </si>
+  <si>
     <t>CHILD_CIRCUMSTANCES2</t>
   </si>
   <si>
     <t>CHILD_CIRCUMSTANCES3</t>
   </si>
   <si>
-    <t>Child Drug Use</t>
-  </si>
-  <si>
-    <t>Child Alcohol Use</t>
-  </si>
-  <si>
-    <t>Prenatal Drug Exposure</t>
-  </si>
-  <si>
     <t>ALCOHOL_OF_CHOICE_VERIFY</t>
   </si>
   <si>
@@ -1674,37 +1755,19 @@
     <t>STIMULANTS</t>
   </si>
   <si>
-    <t>Binge Drinking</t>
-  </si>
-  <si>
-    <t>Cocaine</t>
+    <t>DRUG_USE_CATEGORY1</t>
+  </si>
+  <si>
+    <t>DRUG_USE_CATEGORY2</t>
+  </si>
+  <si>
+    <t>MARIJUANA</t>
   </si>
   <si>
     <t>SUBSTANCE_USER_1</t>
   </si>
   <si>
-    <t>DRUG_USE_CATEGORY1</t>
-  </si>
-  <si>
-    <t>DRUG_USE_CATEGORY2</t>
-  </si>
-  <si>
-    <t>Marijuana/Cannabis</t>
-  </si>
-  <si>
-    <t>MARIJUANA</t>
-  </si>
-  <si>
-    <t>Stimulants</t>
-  </si>
-  <si>
-    <t>Vaping</t>
-  </si>
-  <si>
     <t>NEW_BTN2</t>
-  </si>
-  <si>
-    <t>Caretaker’s Drug Use</t>
   </si>
   <si>
     <t>HEADERREMOVALID</t>
@@ -1817,7 +1880,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1878,6 +1941,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1892,7 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1923,6 +1998,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2238,52 +2317,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="39.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" customWidth="1"/>
-    <col min="10" max="10" width="27.90625" customWidth="1"/>
-    <col min="11" max="11" width="34.36328125" customWidth="1"/>
-    <col min="12" max="12" width="40.453125" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="28.08984375" customWidth="1"/>
-    <col min="15" max="15" width="32" customWidth="1"/>
-    <col min="16" max="16" width="55" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" customWidth="1"/>
-    <col min="18" max="18" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.1796875" customWidth="1"/>
     <col min="20" max="20" width="15.1796875" customWidth="1"/>
-    <col min="22" max="22" width="18.26953125" customWidth="1"/>
-    <col min="23" max="23" width="22.7265625" customWidth="1"/>
-    <col min="24" max="24" width="25.26953125" customWidth="1"/>
-    <col min="25" max="25" width="30.1796875" customWidth="1"/>
-    <col min="26" max="26" width="36.90625" customWidth="1"/>
-    <col min="27" max="27" width="34.6328125" customWidth="1"/>
-    <col min="28" max="28" width="14.90625" customWidth="1"/>
-    <col min="29" max="31" width="23.81640625" customWidth="1"/>
-    <col min="32" max="32" width="19.08984375" customWidth="1"/>
-    <col min="33" max="33" width="12.1796875" customWidth="1"/>
-    <col min="34" max="34" width="21.26953125" customWidth="1"/>
-    <col min="35" max="35" width="26.08984375" customWidth="1"/>
-    <col min="36" max="36" width="30.1796875" customWidth="1"/>
-    <col min="37" max="37" width="33.1796875" customWidth="1"/>
-    <col min="38" max="38" width="36.54296875" customWidth="1"/>
+    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="23" max="23" width="35.7265625" customWidth="1"/>
+    <col min="24" max="24" width="30.453125" customWidth="1"/>
+    <col min="25" max="25" width="29.36328125" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" customWidth="1"/>
+    <col min="27" max="27" width="37.36328125" customWidth="1"/>
+    <col min="28" max="28" width="32.36328125" customWidth="1"/>
+    <col min="29" max="29" width="23.26953125" customWidth="1"/>
+    <col min="30" max="30" width="34.1796875" customWidth="1"/>
+    <col min="31" max="31" width="20.54296875" customWidth="1"/>
+    <col min="32" max="32" width="29.08984375" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="34" max="34" width="20.90625" customWidth="1"/>
+    <col min="35" max="35" width="31.08984375" customWidth="1"/>
+    <col min="36" max="36" width="36.54296875" customWidth="1"/>
+    <col min="37" max="37" width="34.08984375" customWidth="1"/>
+    <col min="38" max="38" width="39.08984375" customWidth="1"/>
+    <col min="39" max="39" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2350,56 +2424,56 @@
       <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>525</v>
-      </c>
-      <c r="X1" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>543</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>545</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>546</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>547</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>548</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="W1" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2412,8 +2486,24 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2561,68 @@
       <c r="S3" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="5" customFormat="1">
+      <c r="T3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+    </row>
+    <row r="4" spans="1:41" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2680,68 @@
       <c r="S4" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="11" customFormat="1">
+      <c r="T4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+    </row>
+    <row r="5" spans="1:41" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2589,13 +2799,68 @@
       <c r="S5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-    </row>
-    <row r="6" spans="1:38" s="5" customFormat="1">
+      <c r="T5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+    </row>
+    <row r="6" spans="1:41" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2653,11 +2918,68 @@
       <c r="S6" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="T6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="5" customFormat="1">
+      <c r="V6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+    </row>
+    <row r="7" spans="1:41" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2715,14 +3037,68 @@
       <c r="S7" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="T7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="W7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2783,8 +3159,65 @@
       <c r="T8" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="U8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -2845,10 +3278,65 @@
       <c r="T9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="1:38" s="5" customFormat="1">
+      <c r="U9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+    </row>
+    <row r="10" spans="1:41" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2906,11 +3394,68 @@
       <c r="S10" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="T10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="V10" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2971,137 +3516,191 @@
       <c r="T11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:38" s="13" customFormat="1" ht="14" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="U11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+    </row>
+    <row r="12" spans="1:41" s="30" customFormat="1">
+      <c r="A12" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="10" t="s">
+      <c r="K12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="AF12" s="13" t="s">
+      <c r="T12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB12" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC12" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD12" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE12" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL12" s="13" t="s">
+      <c r="AG12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL12" s="30" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3133,10 +3732,10 @@
         <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -3203,7 +3802,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3246,6 +3845,32 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3256,11 +3881,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="26" max="26" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
@@ -3273,130 +3908,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -3445,7 +4080,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>30</v>
@@ -3460,13 +4095,13 @@
         <v>30</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>30</v>
@@ -3481,7 +4116,7 @@
         <v>30</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>23</v>
@@ -3490,6 +4125,63 @@
         <v>30</v>
       </c>
       <c r="Y3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="AS3" t="s">
@@ -3532,28 +4224,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3573,19 +4265,19 @@
         <v>23</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>98</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>23</v>
@@ -3608,19 +4300,19 @@
         <v>23</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>98</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>23</v>
@@ -3660,25 +4352,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
         <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3698,13 +4390,13 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>25</v>
@@ -3752,46 +4444,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L1" t="s">
         <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="O1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3817,7 +4509,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>85</v>
@@ -3873,25 +4565,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3914,7 +4606,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
@@ -3923,10 +4615,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
@@ -3958,22 +4650,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -4037,22 +4729,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -4139,70 +4831,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1">
@@ -4222,13 +4914,13 @@
         <v>23</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>23</v>
@@ -4261,10 +4953,10 @@
         <v>23</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>23</v>
@@ -4273,7 +4965,7 @@
         <v>25</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>85</v>
@@ -4291,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4332,60 +5024,60 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="T1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="U1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4458,18 +5150,20 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
     <col min="17" max="17" width="8.453125" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" customWidth="1"/>
+    <col min="18" max="18" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="16.81640625" customWidth="1"/>
     <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.54296875" customWidth="1"/>
@@ -4716,7 +5410,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>25</v>
@@ -4751,19 +5445,84 @@
       <c r="U3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="W3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="Y3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:47" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
@@ -5220,8 +5979,12 @@
       <c r="R9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="S9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U9" s="13" t="s">
         <v>23</v>
       </c>
@@ -5273,16 +6036,36 @@
       <c r="AK9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="AL9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:47">
       <c r="A10" s="18" t="s">
@@ -5339,8 +6122,12 @@
       <c r="R10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="S10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U10" s="18" t="s">
         <v>23</v>
       </c>
@@ -5478,8 +6265,12 @@
       <c r="R11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="S11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U11" s="18" t="s">
         <v>23</v>
       </c>
@@ -5617,8 +6408,12 @@
       <c r="R12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="S12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U12" s="18" t="s">
         <v>23</v>
       </c>
@@ -5756,8 +6551,12 @@
       <c r="R13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="S13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U13" s="18" t="s">
         <v>23</v>
       </c>
@@ -5895,8 +6694,12 @@
       <c r="R14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
+      <c r="S14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="U14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6034,11 +6837,11 @@
       <c r="R15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>109</v>
+      <c r="S15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="U15" s="18" t="s">
         <v>23</v>
@@ -6213,10 +7016,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>23</v>
@@ -6381,42 +7184,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6431,10 +7234,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -6496,60 +7299,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="O1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="R1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="S1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="T1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6564,25 +7367,25 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M2" t="s">
         <v>85</v>
@@ -6656,57 +7459,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="J1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="N1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="O1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="R1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="S1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6730,16 +7533,16 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M2" t="s">
         <v>85</v>
@@ -6770,10 +7573,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6785,9 +7588,11 @@
     <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="74.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6798,27 +7603,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6833,16 +7662,69 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H2" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6883,25 +7765,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -6909,7 +7791,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6924,13 +7806,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -6968,12 +7850,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7011,12 +7893,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7057,12 +7939,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7119,51 +8001,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="I1" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="L1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="M1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="N1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="O1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="P1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="Q1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7184,16 +8066,16 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="I2" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="L2" t="s">
         <v>85</v>
@@ -7271,87 +8153,87 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
         <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="M1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="N1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="O1" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="P1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="Q1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="R1" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="S1" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="T1" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="U1" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="V1" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="W1" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="X1" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Y1" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="Z1" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="AA1" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="AB1" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AC1" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7366,19 +8248,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H2" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -7421,10 +8303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -7456,9 +8338,10 @@
     <col min="32" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="25.54296875" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.5">
+    <row r="1" spans="1:40" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7561,8 +8444,11 @@
       <c r="AH1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" ht="14.5">
+      <c r="AI1" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="14.5">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -7579,7 +8465,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
@@ -7588,10 +8474,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>84</v>
@@ -7606,22 +8492,22 @@
         <v>1234567890</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U2" s="5">
         <v>97818</v>
@@ -7665,8 +8551,11 @@
       <c r="AH2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="AI2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -7683,7 +8572,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
@@ -7692,10 +8581,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>84</v>
@@ -7710,22 +8599,22 @@
         <v>1234567890</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U3" s="5">
         <v>97818</v>
@@ -7769,8 +8658,11 @@
       <c r="AH3" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="AI3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="5" customFormat="1" ht="16">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -7787,7 +8679,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>23</v>
@@ -7796,10 +8688,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>84</v>
@@ -7814,22 +8706,22 @@
         <v>1234567890</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U4" s="5">
         <v>97818</v>
@@ -7873,8 +8765,11 @@
       <c r="AH4" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="14.5">
+      <c r="AI4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.5">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -7888,10 +8783,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>23</v>
@@ -7900,10 +8795,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>84</v>
@@ -7924,16 +8819,16 @@
         <v>30</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U5" s="10">
         <v>97818</v>
@@ -7977,13 +8872,16 @@
       <c r="AH5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AI5" s="10"/>
+      <c r="AI5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
-    </row>
-    <row r="6" spans="1:39" s="11" customFormat="1" ht="14.5">
+      <c r="AN5" s="10"/>
+    </row>
+    <row r="6" spans="1:40" s="11" customFormat="1" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -8000,7 +8898,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>23</v>
@@ -8009,10 +8907,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>84</v>
@@ -8033,16 +8931,16 @@
         <v>30</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U6" s="13">
         <v>97818</v>
@@ -8086,13 +8984,16 @@
       <c r="AH6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AI6" s="13"/>
+      <c r="AI6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" ht="14.5">
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" ht="14.5">
       <c r="A7" s="21" t="s">
         <v>40</v>
       </c>
@@ -8109,7 +9010,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>23</v>
@@ -8118,10 +9019,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>84</v>
@@ -8136,22 +9037,22 @@
         <v>1244512345</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U7" s="21">
         <v>97818</v>
@@ -8195,8 +9096,11 @@
       <c r="AH7" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="14.5">
+      <c r="AI7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="14.5">
       <c r="A8" s="21" t="s">
         <v>40</v>
       </c>
@@ -8213,7 +9117,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>23</v>
@@ -8222,10 +9126,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>84</v>
@@ -8240,22 +9144,22 @@
         <v>1236612345</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U8" s="21">
         <v>97818</v>
@@ -8299,8 +9203,11 @@
       <c r="AH8" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="14.5">
+      <c r="AI8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="14.5">
       <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
@@ -8317,7 +9224,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>23</v>
@@ -8326,10 +9233,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>84</v>
@@ -8344,22 +9251,22 @@
         <v>1266512345</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U9" s="21">
         <v>97818</v>
@@ -8403,8 +9310,11 @@
       <c r="AH9" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1">
+      <c r="AI9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>41</v>
       </c>
@@ -8421,7 +9331,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>23</v>
@@ -8430,10 +9340,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>84</v>
@@ -8448,22 +9358,22 @@
         <v>1244512345</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U10" s="21">
         <v>97818</v>
@@ -8507,13 +9417,14 @@
       <c r="AH10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AI10" s="21"/>
+      <c r="AI10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AJ10" s="21"/>
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-    </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="16">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -8530,7 +9441,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>23</v>
@@ -8539,10 +9450,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>84</v>
@@ -8563,16 +9474,16 @@
         <v>30</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U11" s="5">
         <v>97818</v>
@@ -8616,8 +9527,11 @@
       <c r="AH11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1">
+      <c r="AI11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
@@ -8634,7 +9548,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>23</v>
@@ -8643,10 +9557,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>84</v>
@@ -8667,20 +9581,20 @@
         <v>30</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="T12" s="21">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" s="21">
         <v>97818</v>
       </c>
-      <c r="U12" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="V12" s="21" t="s">
         <v>23</v>
       </c>
@@ -8688,7 +9602,7 @@
         <v>23</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y12" s="21" t="s">
         <v>30</v>
@@ -8712,20 +9626,26 @@
         <v>30</v>
       </c>
       <c r="AF12" s="21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AG12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
     </row>
-    <row r="13" spans="1:39" s="13" customFormat="1" ht="14.5">
+    <row r="13" spans="1:40" s="13" customFormat="1" ht="14.5">
       <c r="A13" s="13" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
@@ -8737,10 +9657,10 @@
         <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>23</v>
@@ -8749,10 +9669,10 @@
         <v>30</v>
       </c>
       <c r="I13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>84</v>
@@ -8773,16 +9693,16 @@
         <v>30</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U13" s="13">
         <v>97818</v>
@@ -8824,6 +9744,9 @@
         <v>23</v>
       </c>
       <c r="AH13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8878,55 +9801,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M1" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -9024,13 +9947,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>82</v>
@@ -9038,7 +9961,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -9050,10 +9973,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -9069,7 +9992,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9091,18 +10014,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="E1" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="F1" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -9117,12 +10040,12 @@
         <v>85</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -9137,7 +10060,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -9147,10 +10070,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9166,19 +10089,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -9201,7 +10124,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -9210,6 +10133,35 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9243,46 +10195,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>131</v>
@@ -9305,7 +10257,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
@@ -9387,22 +10339,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="E1" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="F1" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="G1" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="H1" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="I1" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9441,10 +10393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9469,9 +10421,11 @@
     <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9482,43 +10436,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q1" t="s">
         <v>56</v>
@@ -9527,22 +10481,31 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="U1" t="s">
         <v>59</v>
       </c>
       <c r="V1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="W1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="16.5">
+        <v>168</v>
+      </c>
+      <c r="X1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="16.5">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -9565,7 +10528,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>92</v>
@@ -9577,7 +10540,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>23</v>
@@ -9598,7 +10561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="11" customFormat="1">
+    <row r="3" spans="1:27" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -9662,10 +10625,14 @@
         <v>25</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>174</v>
+      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
@@ -9712,7 +10679,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -9729,10 +10696,10 @@
         <v>30</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
@@ -9779,7 +10746,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
@@ -9796,10 +10763,10 @@
         <v>30</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
@@ -9846,7 +10813,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -9863,10 +10830,10 @@
         <v>30</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -9904,19 +10871,19 @@
         <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>23</v>
@@ -9934,10 +10901,10 @@
         <v>30</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="16.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -9984,10 +10951,10 @@
         <v>23</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>23</v>
@@ -10005,10 +10972,10 @@
         <v>30</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -10055,7 +11022,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>30</v>
@@ -10076,7 +11043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -10114,16 +11081,16 @@
         <v>30</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>30</v>
@@ -10144,10 +11111,10 @@
         <v>30</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
@@ -10194,7 +11161,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -10211,10 +11178,10 @@
         <v>30</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -10252,16 +11219,16 @@
         <v>30</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -10278,10 +11245,10 @@
         <v>30</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="23" t="s">
         <v>43</v>
       </c>
@@ -10328,7 +11295,7 @@
         <v>23</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>109</v>
@@ -10346,10 +11313,19 @@
         <v>23</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10359,19 +11335,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10382,34 +11377,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -10418,31 +11413,37 @@
         <v>20</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>200</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -10462,7 +11463,7 @@
         <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
         <v>86</v>
@@ -10471,7 +11472,7 @@
         <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -10480,7 +11481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -10503,32 +11504,37 @@
         <v>84</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>543</v>
+      </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
@@ -10545,8 +11551,14 @@
       <c r="W3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -10569,10 +11581,10 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>86</v>
@@ -10581,7 +11593,7 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -10614,7 +11626,90 @@
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>542</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10672,16 +11767,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>47</v>
@@ -10690,28 +11785,28 @@
         <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>121</v>
@@ -10720,7 +11815,7 @@
         <v>123</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>126</v>
@@ -10729,25 +11824,25 @@
         <v>127</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -10756,22 +11851,22 @@
         <v>20</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -10808,7 +11903,7 @@
         <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>86</v>
@@ -10817,20 +11912,20 @@
         <v>84</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -10842,13 +11937,13 @@
         <v>23</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -10891,31 +11986,31 @@
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -10927,7 +12022,7 @@
         <v>23</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>30</v>
@@ -10983,31 +12078,31 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -11019,7 +12114,7 @@
         <v>23</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>30</v>
@@ -11052,8 +12147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11074,6 +12169,12 @@
     <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -11087,70 +12188,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>66</v>
@@ -11173,13 +12274,13 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>85</v>
@@ -11188,7 +12289,7 @@
         <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -11200,16 +12301,16 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="R2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -11229,13 +12330,13 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
         <v>85</v>
@@ -11244,7 +12345,7 @@
         <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -11256,19 +12357,19 @@
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="R3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="S3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="T3" t="s">
         <v>23</v>
@@ -11619,15 +12720,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -11635,6 +12727,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11657,14 +12758,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11674,6 +12767,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,46 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89ABEF58-D1AD-438B-857C-DBFC0C1BEE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E4F1FE-5C28-45D0-B0AC-C13787F1E2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
     <sheet name="ChildLocations" sheetId="2" r:id="rId2"/>
     <sheet name="ProviderSearch" sheetId="10" r:id="rId3"/>
-    <sheet name="ProviderOptions" sheetId="11" r:id="rId4"/>
-    <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId5"/>
-    <sheet name="ChildLocationAbsences" sheetId="4" r:id="rId6"/>
-    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId7"/>
-    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId8"/>
-    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId9"/>
-    <sheet name="Placement" sheetId="8" r:id="rId10"/>
-    <sheet name="ChildLocationContactLogs" sheetId="9" r:id="rId11"/>
-    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId12"/>
-    <sheet name="Task" sheetId="13" r:id="rId13"/>
-    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
-    <sheet name="BackgroundChecks" sheetId="15" r:id="rId15"/>
-    <sheet name="Inspections" sheetId="30" r:id="rId16"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId17"/>
-    <sheet name="ChildLocationOverstayRepo" sheetId="18" r:id="rId18"/>
-    <sheet name="EligibilityDetails" sheetId="19" r:id="rId19"/>
-    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId20"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId21"/>
-    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId22"/>
-    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId23"/>
-    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId24"/>
-    <sheet name="QualifiedResidentialTreatment" sheetId="35" r:id="rId25"/>
-    <sheet name="ExtendedFosterCareInfo" sheetId="36" r:id="rId26"/>
-    <sheet name="KinGapInformation" sheetId="37" r:id="rId27"/>
-    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId28"/>
-    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId29"/>
-    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId30"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId31"/>
-    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId32"/>
-    <sheet name="LegalAuthority" sheetId="31" r:id="rId33"/>
-    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId34"/>
-    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId35"/>
+    <sheet name="TribalPlacementPreferences" sheetId="38" r:id="rId4"/>
+    <sheet name="ProviderOptions" sheetId="11" r:id="rId5"/>
+    <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId6"/>
+    <sheet name="ChildLocationAbsences" sheetId="4" r:id="rId7"/>
+    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId8"/>
+    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId9"/>
+    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId10"/>
+    <sheet name="Placement" sheetId="8" r:id="rId11"/>
+    <sheet name="ChildLocationContactLogs" sheetId="9" r:id="rId12"/>
+    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId13"/>
+    <sheet name="Task" sheetId="13" r:id="rId14"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId15"/>
+    <sheet name="BackgroundChecks" sheetId="15" r:id="rId16"/>
+    <sheet name="Inspections" sheetId="30" r:id="rId17"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId18"/>
+    <sheet name="ChildLocationOverstayRepo" sheetId="18" r:id="rId19"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId20"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId21"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId22"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId24"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId25"/>
+    <sheet name="QualifiedResidentialTreatment" sheetId="35" r:id="rId26"/>
+    <sheet name="ExtendedFosterCareInfo" sheetId="36" r:id="rId27"/>
+    <sheet name="KinGapInformation" sheetId="37" r:id="rId28"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId29"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId30"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId31"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId32"/>
+    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId33"/>
+    <sheet name="LegalAuthority" sheetId="31" r:id="rId34"/>
+    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId35"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="583">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1783,6 +1784,42 @@
   </si>
   <si>
     <t>HEADERPRIMERYREASONFORREMOVAL</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PREFERENCE_AND_NEED</t>
+  </si>
+  <si>
+    <t>CALL_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>NAME_OF_TRIBE</t>
+  </si>
+  <si>
+    <t>TRIBE_PREFERENCE_MATCH</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE1</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE2</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE3</t>
+  </si>
+  <si>
+    <t>TRIBE_PLACEMENT_PREFERENCE4</t>
+  </si>
+  <si>
+    <t>NAME_OF_TRIBAL_REPRESENTATIVE</t>
+  </si>
+  <si>
+    <t>TRIBAL_PREFERENCE_NARRATIVE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_iNFORMATION</t>
+  </si>
+  <si>
+    <t>TribeTest</t>
   </si>
 </sst>
 </file>
@@ -3696,6 +3733,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -3877,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
@@ -4193,7 +4287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD748B5-5EB5-4EF0-88DC-9D96EA72FC2E}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4323,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4416,7 +4510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4544,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4629,7 +4723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179466CA-0BE6-4384-819E-AC7F7D56F1E6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4708,7 +4802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4787,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -4972,172 +5066,6 @@
       </c>
       <c r="Y2" s="14" t="s">
         <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.7265625" customWidth="1"/>
-    <col min="12" max="12" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>384</v>
-      </c>
-      <c r="T1" t="s">
-        <v>385</v>
-      </c>
-      <c r="U1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1">
-      <c r="A2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7149,6 +7077,172 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="12" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>384</v>
+      </c>
+      <c r="T1" t="s">
+        <v>385</v>
+      </c>
+      <c r="U1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -7257,7 +7351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -7417,7 +7511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -7571,7 +7665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -7732,7 +7826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -7829,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62887492-75AB-40B1-A5D9-4831EF5DEB0F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7872,7 +7966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC0DD3-8835-421A-994E-8F85EB22C017}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7915,7 +8009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C9D91D-9A58-4CBB-B2CB-16DC1FC2A54E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7961,7 +8055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -8101,7 +8195,1467 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
+  <dimension ref="A1:AN13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="42.81640625" customWidth="1"/>
+    <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" customWidth="1"/>
+    <col min="17" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="21.453125" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" customWidth="1"/>
+    <col min="26" max="26" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.54296875" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="14.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="14.5">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="5">
+        <v>97818</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="5">
+        <v>97818</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="5" customFormat="1" ht="16">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="5">
+        <v>97818</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.5">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1234567890</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="10">
+        <v>97818</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+    </row>
+    <row r="6" spans="1:40" s="11" customFormat="1" ht="14.5">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1234512345</v>
+      </c>
+      <c r="M6" s="13">
+        <v>10</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="13">
+        <v>97818</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" ht="14.5">
+      <c r="A7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M7" s="21">
+        <v>10</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1244512345</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="21">
+        <v>97818</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="14.5">
+      <c r="A8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M8" s="21">
+        <v>10</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1236612345</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="21">
+        <v>97818</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="14.5">
+      <c r="A9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M9" s="21">
+        <v>10</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1266512345</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="21">
+        <v>97818</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M10" s="21">
+        <v>10</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1244512345</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="21">
+        <v>97818</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+    </row>
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="16">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="5">
+        <v>97818</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1234512345</v>
+      </c>
+      <c r="M12" s="21">
+        <v>10</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" s="21">
+        <v>97818</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+    </row>
+    <row r="13" spans="1:40" s="13" customFormat="1" ht="14.5">
+      <c r="A13" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1234512345</v>
+      </c>
+      <c r="M13" s="13">
+        <v>10</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="13">
+        <v>97818</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2:O3" r:id="rId1" display="Test@gmail.com" xr:uid="{CF4786A1-8B13-41CC-A006-32F2FC1CDBB5}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{3E11CB9E-93B9-49ED-9E0D-35D9B0B75947}"/>
+    <hyperlink ref="O3:O4" r:id="rId3" display="Test@gmail.com" xr:uid="{A8E0DAE8-1596-4168-B927-E16D1AC6AC53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
@@ -8301,1467 +9855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AN13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="42.81640625" customWidth="1"/>
-    <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.453125" customWidth="1"/>
-    <col min="17" max="21" width="31" customWidth="1"/>
-    <col min="22" max="23" width="21.453125" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" customWidth="1"/>
-    <col min="26" max="26" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="42" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.54296875" customWidth="1"/>
-    <col min="35" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" ht="14.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="14.5">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M2" s="5">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U2" s="5">
-        <v>97818</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M3" s="5">
-        <v>4</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" s="5">
-        <v>97818</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" ht="16">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="5">
-        <v>97818</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.5">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="M5" s="10">
-        <v>4</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" s="10">
-        <v>97818</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-    </row>
-    <row r="6" spans="1:40" s="11" customFormat="1" ht="14.5">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="13">
-        <v>1234512345</v>
-      </c>
-      <c r="M6" s="13">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="U6" s="13">
-        <v>97818</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-    </row>
-    <row r="7" spans="1:40" ht="14.5">
-      <c r="A7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="21">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="21">
-        <v>1234512345</v>
-      </c>
-      <c r="M7" s="21">
-        <v>10</v>
-      </c>
-      <c r="N7" s="21">
-        <v>1244512345</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" s="21">
-        <v>97818</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="14.5">
-      <c r="A8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="21">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="21">
-        <v>1234512345</v>
-      </c>
-      <c r="M8" s="21">
-        <v>10</v>
-      </c>
-      <c r="N8" s="21">
-        <v>1236612345</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="21">
-        <v>97818</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="14.5">
-      <c r="A9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="21">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="21">
-        <v>1234512345</v>
-      </c>
-      <c r="M9" s="21">
-        <v>10</v>
-      </c>
-      <c r="N9" s="21">
-        <v>1266512345</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" s="21">
-        <v>97818</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="21">
-        <v>1234512345</v>
-      </c>
-      <c r="M10" s="21">
-        <v>10</v>
-      </c>
-      <c r="N10" s="21">
-        <v>1244512345</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" s="21">
-        <v>97818</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-    </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="16">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U11" s="5">
-        <v>97818</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="21">
-        <v>1234512345</v>
-      </c>
-      <c r="M12" s="21">
-        <v>10</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="T12" t="s">
-        <v>152</v>
-      </c>
-      <c r="U12" s="21">
-        <v>97818</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ12" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-    </row>
-    <row r="13" spans="1:40" s="13" customFormat="1" ht="14.5">
-      <c r="A13" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="13">
-        <v>1234512345</v>
-      </c>
-      <c r="M13" s="13">
-        <v>10</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="13">
-        <v>97818</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2:O3" r:id="rId1" display="Test@gmail.com" xr:uid="{CF4786A1-8B13-41CC-A006-32F2FC1CDBB5}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{3E11CB9E-93B9-49ED-9E0D-35D9B0B75947}"/>
-    <hyperlink ref="O3:O4" r:id="rId3" display="Test@gmail.com" xr:uid="{A8E0DAE8-1596-4168-B927-E16D1AC6AC53}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -9917,7 +10011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -9987,7 +10081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21398B7D-275B-4B1F-A973-DFEFD3626363}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10068,7 +10162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -10170,7 +10264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -10310,7 +10404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10392,6 +10486,143 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0554AEBB-43BB-4C99-9EE6-60E2D653999B}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" customWidth="1"/>
+    <col min="9" max="9" width="30.1796875" customWidth="1"/>
+    <col min="10" max="10" width="29.453125" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" customWidth="1"/>
+    <col min="13" max="14" width="31.7265625" customWidth="1"/>
+    <col min="15" max="15" width="23.08984375" customWidth="1"/>
+    <col min="16" max="16" width="29.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="32" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
@@ -11333,7 +11564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -11718,7 +11949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
@@ -12143,7 +12374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
@@ -12383,7 +12614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -12445,64 +12676,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12719,26 +12912,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12757,24 +12949,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E4F1FE-5C28-45D0-B0AC-C13787F1E2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B3AA6-D3C5-4D92-B070-9F557E509F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="584">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1820,6 +1820,9 @@
   </si>
   <si>
     <t>TribeTest</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
   </si>
 </sst>
 </file>
@@ -10487,10 +10490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0554AEBB-43BB-4C99-9EE6-60E2D653999B}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10500,18 +10503,19 @@
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="33.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" customWidth="1"/>
-    <col min="9" max="9" width="30.1796875" customWidth="1"/>
-    <col min="10" max="10" width="29.453125" customWidth="1"/>
-    <col min="11" max="11" width="31.81640625" customWidth="1"/>
-    <col min="12" max="12" width="28.81640625" customWidth="1"/>
-    <col min="13" max="14" width="31.7265625" customWidth="1"/>
-    <col min="15" max="15" width="23.08984375" customWidth="1"/>
-    <col min="16" max="16" width="29.36328125" customWidth="1"/>
+    <col min="7" max="7" width="21" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="31.81640625" customWidth="1"/>
+    <col min="13" max="13" width="28.81640625" customWidth="1"/>
+    <col min="14" max="15" width="31.7265625" customWidth="1"/>
+    <col min="16" max="16" width="23.08984375" customWidth="1"/>
+    <col min="17" max="17" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="32" customFormat="1">
+    <row r="1" spans="1:18" s="32" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10531,40 +10535,43 @@
         <v>572</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="P1" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="33" customFormat="1">
+    <row r="2" spans="1:18" s="33" customFormat="1">
       <c r="A2" s="33" t="s">
         <v>545</v>
       </c>
@@ -10578,19 +10585,19 @@
         <v>23</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" s="33" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>30</v>
@@ -10614,6 +10621,9 @@
         <v>30</v>
       </c>
       <c r="Q2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,47 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B3AA6-D3C5-4D92-B070-9F557E509F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D41747-841F-4E6C-937B-22C70E50B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
     <sheet name="ChildLocations" sheetId="2" r:id="rId2"/>
     <sheet name="ProviderSearch" sheetId="10" r:id="rId3"/>
     <sheet name="TribalPlacementPreferences" sheetId="38" r:id="rId4"/>
-    <sheet name="ProviderOptions" sheetId="11" r:id="rId5"/>
-    <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId6"/>
-    <sheet name="ChildLocationAbsences" sheetId="4" r:id="rId7"/>
-    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId8"/>
-    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId9"/>
-    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId10"/>
-    <sheet name="Placement" sheetId="8" r:id="rId11"/>
-    <sheet name="ChildLocationContactLogs" sheetId="9" r:id="rId12"/>
-    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId13"/>
-    <sheet name="Task" sheetId="13" r:id="rId14"/>
-    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId15"/>
-    <sheet name="BackgroundChecks" sheetId="15" r:id="rId16"/>
-    <sheet name="Inspections" sheetId="30" r:id="rId17"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId18"/>
-    <sheet name="ChildLocationOverstayRepo" sheetId="18" r:id="rId19"/>
-    <sheet name="EligibilityDetails" sheetId="19" r:id="rId20"/>
-    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId21"/>
-    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId22"/>
-    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
-    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId24"/>
-    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId25"/>
-    <sheet name="QualifiedResidentialTreatment" sheetId="35" r:id="rId26"/>
-    <sheet name="ExtendedFosterCareInfo" sheetId="36" r:id="rId27"/>
-    <sheet name="KinGapInformation" sheetId="37" r:id="rId28"/>
-    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId29"/>
-    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId30"/>
-    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId31"/>
-    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId32"/>
-    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId33"/>
-    <sheet name="LegalAuthority" sheetId="31" r:id="rId34"/>
-    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId35"/>
-    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId36"/>
+    <sheet name="ParentGuardPlacementPreferences" sheetId="39" r:id="rId5"/>
+    <sheet name="YouthPlacementPreferences" sheetId="40" r:id="rId6"/>
+    <sheet name="PlacementNeeds" sheetId="41" r:id="rId7"/>
+    <sheet name="ProviderOptions" sheetId="11" r:id="rId8"/>
+    <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId9"/>
+    <sheet name="ChildLocationAbsences" sheetId="4" r:id="rId10"/>
+    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId11"/>
+    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId12"/>
+    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId13"/>
+    <sheet name="Placement" sheetId="8" r:id="rId14"/>
+    <sheet name="ChildLocationContactLogs" sheetId="9" r:id="rId15"/>
+    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId16"/>
+    <sheet name="Task" sheetId="13" r:id="rId17"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId18"/>
+    <sheet name="BackgroundChecks" sheetId="15" r:id="rId19"/>
+    <sheet name="Inspections" sheetId="30" r:id="rId20"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId21"/>
+    <sheet name="ChildLocationOverstayRepo" sheetId="18" r:id="rId22"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId23"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId24"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId25"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId26"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId27"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId28"/>
+    <sheet name="QualifiedResidentialTreatment" sheetId="35" r:id="rId29"/>
+    <sheet name="ExtendedFosterCareInfo" sheetId="36" r:id="rId30"/>
+    <sheet name="KinGapInformation" sheetId="37" r:id="rId31"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId32"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId33"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId34"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId35"/>
+    <sheet name="SubmitToCalSAWS" sheetId="34" r:id="rId36"/>
+    <sheet name="LegalAuthority" sheetId="31" r:id="rId37"/>
+    <sheet name="KnowledgeArticle" sheetId="32" r:id="rId38"/>
+    <sheet name="ChildLocationAuditHistory" sheetId="33" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="618">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1823,6 +1826,108 @@
   </si>
   <si>
     <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>PARENT_GUARDAIN_NAME_TD</t>
+  </si>
+  <si>
+    <t>PARENT_GUARDIAN_NEW_BTN</t>
+  </si>
+  <si>
+    <t>NON_PERSON_PLACEMENT_REFERENCE</t>
+  </si>
+  <si>
+    <t>PERSON_PLACEMENT_REFERENCE</t>
+  </si>
+  <si>
+    <t>YOUTH_PLACEMENT_NEW_BTN</t>
+  </si>
+  <si>
+    <t>HOUSING_OPTIONS</t>
+  </si>
+  <si>
+    <t>SILP_PLACEMENT_TYPE</t>
+  </si>
+  <si>
+    <t>THPP</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PREFERENCES_AND_NEEDS_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NEEDS_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CHILD_NAME</t>
+  </si>
+  <si>
+    <t>PERMISSION_TO_SHARE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NEED_NARATIVE</t>
+  </si>
+  <si>
+    <t>SIBLINGS_PLACED_TOGETHER</t>
+  </si>
+  <si>
+    <t>PREFERENCES_IN_PLACEMENT_PROVIDER</t>
+  </si>
+  <si>
+    <t>CHILD_HOBBIES</t>
+  </si>
+  <si>
+    <t>CHILD_ROUTINES</t>
+  </si>
+  <si>
+    <t>RELEGION</t>
+  </si>
+  <si>
+    <t>RELEGIOUS_ACTIVITIES_NARATTIVE</t>
+  </si>
+  <si>
+    <t>ATTEND_TRIBAL_EVENTS</t>
+  </si>
+  <si>
+    <t>EXTRA_CURRICULAR_ACTIVITIES</t>
+  </si>
+  <si>
+    <t>CHILD_FOOD_PREFERENCES</t>
+  </si>
+  <si>
+    <t>CHILD_HAIR_CARE</t>
+  </si>
+  <si>
+    <t>FEAR_ANXIETIES</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT_INFORMATION</t>
+  </si>
+  <si>
+    <t>LANGUAGE_PROFICIENCY</t>
+  </si>
+  <si>
+    <t>MOBILITY_CHALLENGES</t>
+  </si>
+  <si>
+    <t>INDEPENDENT_LIVING_SKILLS</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION_ACCESS</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT_NEEDS</t>
+  </si>
+  <si>
+    <t>OTHER_NEEDS</t>
+  </si>
+  <si>
+    <t>SAFETY_CONCERNS</t>
+  </si>
+  <si>
+    <t>CURRENT_BEHAVIOUR_CONCERNS</t>
+  </si>
+  <si>
+    <t>PAST_BEHAVIOUR_CONCERNS</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2465,7 @@
   <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3732,10 +3837,738 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
+  <dimension ref="A1:AP4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1796875" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="29.1796875" customWidth="1"/>
+    <col min="30" max="30" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2" s="1">
+        <v>28570</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T3">
+        <v>28570</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T4">
+        <v>28570</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" t="s">
+        <v>260</v>
+      </c>
+      <c r="S3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3792,7 +4625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -3974,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
@@ -4290,7 +5123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD748B5-5EB5-4EF0-88DC-9D96EA72FC2E}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4420,7 +5253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4513,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4641,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4719,356 +5552,6 @@
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179466CA-0BE6-4384-819E-AC7F7D56F1E6}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1796875" customWidth="1"/>
-    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="14" customFormat="1">
-      <c r="A2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7080,6 +7563,356 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179466CA-0BE6-4384-819E-AC7F7D56F1E6}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1796875" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="14" customFormat="1">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -7245,7 +8078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -7354,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -7514,7 +8347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -7668,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -7829,7 +8662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -7926,7 +8759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62887492-75AB-40B1-A5D9-4831EF5DEB0F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7962,235 +8795,6 @@
       </c>
       <c r="D2" s="15" t="s">
         <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC0DD3-8835-421A-994E-8F85EB22C017}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C9D91D-9A58-4CBB-B2CB-16DC1FC2A54E}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>466</v>
-      </c>
-      <c r="L1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M1" t="s">
-        <v>468</v>
-      </c>
-      <c r="N1" t="s">
-        <v>469</v>
-      </c>
-      <c r="O1" t="s">
-        <v>470</v>
-      </c>
-      <c r="P1" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>473</v>
-      </c>
-      <c r="I2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -9659,6 +10263,235 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC0DD3-8835-421A-994E-8F85EB22C017}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C9D91D-9A58-4CBB-B2CB-16DC1FC2A54E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N1" t="s">
+        <v>469</v>
+      </c>
+      <c r="O1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
@@ -9858,7 +10691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -10014,7 +10847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10084,7 +10917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21398B7D-275B-4B1F-A973-DFEFD3626363}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10165,7 +10998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6210045-CE4A-4214-AAD3-074D92F518C1}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -10267,7 +11100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05C5E-FCC2-49C0-9311-4BBB70D0F21A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -10407,7 +11240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41B10F-8604-4EA7-BD0E-5A173F6C691E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10493,7 +11326,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10629,10 +11462,495 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6C00D-36F0-4285-B03D-BD81699A62A6}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" customWidth="1"/>
+    <col min="10" max="10" width="29.36328125" customWidth="1"/>
+    <col min="11" max="11" width="28.453125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="30" customFormat="1">
+      <c r="A2" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2BE8B-4BAA-4145-81C2-D41B5575B59A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" customWidth="1"/>
+    <col min="9" max="9" width="31.36328125" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" customWidth="1"/>
+    <col min="13" max="13" width="20.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M1" t="s">
+        <v>590</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1">
+      <c r="A2" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F948E1-4C3F-4738-B312-98EBB6968BDA}">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" customWidth="1"/>
+    <col min="11" max="11" width="27.1796875" customWidth="1"/>
+    <col min="12" max="12" width="29.6328125" customWidth="1"/>
+    <col min="13" max="13" width="37.54296875" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" customWidth="1"/>
+    <col min="15" max="15" width="22.54296875" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="30.7265625" customWidth="1"/>
+    <col min="18" max="18" width="21.54296875" customWidth="1"/>
+    <col min="19" max="19" width="28.36328125" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="21.08984375" customWidth="1"/>
+    <col min="23" max="23" width="28.453125" customWidth="1"/>
+    <col min="24" max="24" width="24.81640625" customWidth="1"/>
+    <col min="25" max="25" width="23.1796875" customWidth="1"/>
+    <col min="26" max="26" width="26.6328125" customWidth="1"/>
+    <col min="27" max="27" width="24.453125" customWidth="1"/>
+    <col min="28" max="28" width="24.36328125" customWidth="1"/>
+    <col min="29" max="29" width="18.6328125" customWidth="1"/>
+    <col min="30" max="30" width="21.1796875" customWidth="1"/>
+    <col min="31" max="31" width="29.26953125" customWidth="1"/>
+    <col min="32" max="32" width="26.6328125" customWidth="1"/>
+    <col min="33" max="33" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L1" t="s">
+        <v>597</v>
+      </c>
+      <c r="M1" t="s">
+        <v>598</v>
+      </c>
+      <c r="N1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O1" t="s">
+        <v>600</v>
+      </c>
+      <c r="P1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R1" t="s">
+        <v>603</v>
+      </c>
+      <c r="S1" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" t="s">
+        <v>605</v>
+      </c>
+      <c r="U1" t="s">
+        <v>606</v>
+      </c>
+      <c r="V1" t="s">
+        <v>607</v>
+      </c>
+      <c r="W1" t="s">
+        <v>608</v>
+      </c>
+      <c r="X1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="30" customFormat="1">
+      <c r="A2" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
@@ -11574,7 +12892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -11956,733 +13274,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
-  <dimension ref="A1:AP4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.1796875" customWidth="1"/>
-    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="29.1796875" customWidth="1"/>
-    <col min="30" max="30" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="T2" s="1">
-        <v>28570</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="T3">
-        <v>28570</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="T4">
-        <v>28570</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
-  <dimension ref="A1:Z3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" t="s">
-        <v>260</v>
-      </c>
-      <c r="S3" t="s">
-        <v>261</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D41747-841F-4E6C-937B-22C70E50B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{161A1367-A61F-4F64-89F6-9A0EB928F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -2464,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -11325,7 +11325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0554AEBB-43BB-4C99-9EE6-60E2D653999B}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -13278,25 +13278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13513,25 +13494,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13550,6 +13532,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161A1367-A61F-4F64-89F6-9A0EB928F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9571F3-E429-48FC-A389-A5559E066CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="618">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5561,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AU17"/>
+  <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5574,6 +5574,7 @@
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
     <col min="17" max="17" width="8.453125" customWidth="1"/>
@@ -7554,6 +7555,149 @@
       </c>
       <c r="AU17" s="21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" s="13" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU18" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED7CA7-C29E-4D4C-A698-1C284AA41A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0071014-35E2-4989-8A74-CDB142263FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -9036,8 +9036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:CB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -13084,8 +13084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13342,7 +13342,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -13351,7 +13351,7 @@
         <v>234</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>139</v>
@@ -13434,7 +13434,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -13442,8 +13442,8 @@
       <c r="K4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>139</v>
@@ -13509,8 +13509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13719,7 +13719,7 @@
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
         <v>260</v>
